--- a/Cirrusform.xlsx
+++ b/Cirrusform.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GA_Cirrusform-ST" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t xml:space="preserve">TestScenarioID</t>
   </si>
@@ -451,7 +451,7 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -706,8 +706,8 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -780,6 +780,9 @@
       <c r="H2" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="1" t="s">
